--- a/tut05/output/0501CS19.xlsx
+++ b/tut05/output/0501CS19.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C6" t="n">
-        <v>7.659090909090909</v>
+        <v>7.66</v>
       </c>
       <c r="D6" t="n">
-        <v>8.116279069767442</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.425531914893616</v>
+        <v>8.43</v>
       </c>
       <c r="F6" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="G6" t="n">
-        <v>7.725</v>
+        <v>7.72</v>
       </c>
       <c r="H6" t="n">
-        <v>7.951219512195122</v>
+        <v>7.95</v>
       </c>
       <c r="I6" t="n">
         <v>8.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.816326530612245</v>
+        <v>7.82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.741935483870968</v>
+        <v>7.74</v>
       </c>
       <c r="D8" t="n">
-        <v>7.860294117647059</v>
+        <v>7.86</v>
       </c>
       <c r="E8" t="n">
-        <v>8.005464480874316</v>
+        <v>8.01</v>
       </c>
       <c r="F8" t="n">
-        <v>7.977777777777778</v>
+        <v>7.98</v>
       </c>
       <c r="G8" t="n">
-        <v>7.939622641509434</v>
+        <v>7.94</v>
       </c>
       <c r="H8" t="n">
-        <v>7.941176470588236</v>
+        <v>7.94</v>
       </c>
       <c r="I8" t="n">
-        <v>7.959537572254336</v>
+        <v>7.96</v>
       </c>
     </row>
   </sheetData>
